--- a/CheckVasya.xlsx
+++ b/CheckVasya.xlsx
@@ -26,39 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
-  <si>
-    <t xml:space="preserve">Number:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${number}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage.Contract.Total amount:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${stage.contract.totalAmount}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${description}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${date}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">${number} Вася </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">Получатель</t>
   </si>
   <si>
     <t xml:space="preserve">${orgName}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Получатель</t>
   </si>
   <si>
     <t xml:space="preserve">Сч. №</t>
@@ -224,7 +197,13 @@
     <t xml:space="preserve">Сумма</t>
   </si>
   <si>
+    <t xml:space="preserve">${description}</t>
+  </si>
+  <si>
     <t xml:space="preserve">СУММА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${stage.contract.totalAmount}</t>
   </si>
   <si>
     <t xml:space="preserve">Итого:</t>
@@ -682,7 +661,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -692,48 +671,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -744,39 +702,39 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="14"/>
       <c r="D8" s="15"/>
       <c r="E8" s="16" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="17" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
       <c r="E9" s="11" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -784,7 +742,7 @@
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="16.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -802,7 +760,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -813,7 +771,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -842,23 +800,23 @@
     </row>
     <row r="17" customFormat="false" ht="35.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="26" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -866,16 +824,16 @@
         <v>1</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="30"/>
       <c r="E18" s="31"/>
       <c r="F18" s="32" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,10 +843,10 @@
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="34" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,7 +856,7 @@
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="36" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G20" s="37"/>
     </row>
@@ -909,10 +867,10 @@
       <c r="D21" s="39"/>
       <c r="E21" s="40"/>
       <c r="F21" s="34" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,7 +884,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="41" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B23" s="41"/>
       <c r="C23" s="41"/>
@@ -955,7 +913,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="14"/>
